--- a/BusManagerSecOcDemo.xlsx
+++ b/BusManagerSecOcDemo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xuhua\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_XuhuaRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A1710D-7364-4284-91EE-DBEEB362421E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB61EA1-1997-4512-B2C6-277649D0F516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
+    <workbookView xWindow="28680" yWindow="-8640" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
   </bookViews>
   <sheets>
     <sheet name="arxml" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="106">
   <si>
     <t>Frame</t>
   </si>
@@ -169,7 +169,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -179,7 +179,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -196,7 +196,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -207,7 +207,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -221,7 +221,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -232,7 +232,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -245,7 +245,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -256,7 +256,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -269,7 +269,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -280,7 +280,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -293,7 +293,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -304,7 +304,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -317,7 +317,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -328,7 +328,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -341,7 +341,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -352,7 +352,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -365,7 +365,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -376,7 +376,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -389,7 +389,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -405,7 +405,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -415,7 +415,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -426,7 +426,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -436,7 +436,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -447,7 +447,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -457,7 +457,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -473,7 +473,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -483,7 +483,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -494,7 +494,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -504,7 +504,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -515,7 +515,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -525,7 +525,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -542,7 +542,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -553,7 +553,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -565,7 +565,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -576,7 +576,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -588,7 +588,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -599,7 +599,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -615,7 +615,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -625,7 +625,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -636,7 +636,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -646,7 +646,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -657,7 +657,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -667,7 +667,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -678,7 +678,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -688,7 +688,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -696,18 +696,12 @@
     </r>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>CSMJobHandle:Crypto_Job</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -717,7 +711,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -728,7 +722,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -738,7 +732,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -749,7 +743,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -759,7 +753,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -771,7 +765,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -781,7 +775,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -792,7 +786,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -802,7 +796,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -813,7 +807,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -823,7 +817,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -835,7 +829,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -845,7 +839,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -856,7 +850,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -866,7 +860,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -877,7 +871,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -887,7 +881,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -899,7 +893,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -909,7 +903,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -920,7 +914,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -930,7 +924,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -941,7 +935,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -951,7 +945,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -962,7 +956,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -972,7 +966,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -990,7 +984,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1000,7 +994,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1011,7 +1005,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1021,7 +1015,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1032,7 +1026,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1042,7 +1036,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1054,7 +1048,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1064,7 +1058,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1075,7 +1069,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1085,7 +1079,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1096,7 +1090,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1106,7 +1100,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1118,7 +1112,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1128,7 +1122,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1139,7 +1133,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1149,7 +1143,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1160,7 +1154,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1170,7 +1164,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1183,7 +1177,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1193,7 +1187,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1204,7 +1198,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1214,7 +1208,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1226,7 +1220,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1236,7 +1230,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1247,7 +1241,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1257,7 +1251,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1268,7 +1262,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1278,7 +1272,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1290,7 +1284,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1300,7 +1294,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1311,7 +1305,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1321,7 +1315,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1332,7 +1326,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1342,7 +1336,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1354,7 +1348,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1364,7 +1358,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1375,7 +1369,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1385,7 +1379,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1396,7 +1390,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1406,7 +1400,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1418,7 +1412,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1428,7 +1422,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1439,7 +1433,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1449,7 +1443,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1460,7 +1454,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1470,7 +1464,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1482,7 +1476,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1492,7 +1486,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1503,7 +1497,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1513,7 +1507,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1536,7 +1530,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1547,7 +1541,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1560,7 +1554,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1571,7 +1565,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1583,7 +1577,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1594,7 +1588,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1607,7 +1601,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1618,7 +1612,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1630,7 +1624,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1641,7 +1635,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1654,7 +1648,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1665,7 +1659,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1677,7 +1671,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1688,7 +1682,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1701,7 +1695,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1712,7 +1706,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1724,7 +1718,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1735,7 +1729,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1747,7 +1741,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1758,7 +1752,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1771,7 +1765,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1782,7 +1776,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1794,7 +1788,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1805,7 +1799,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1817,7 +1811,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1828,7 +1822,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1863,7 +1857,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1873,7 +1867,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1882,7 +1876,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1892,7 +1886,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1905,7 +1899,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1914,7 +1908,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1930,7 +1924,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1940,7 +1934,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1951,7 +1945,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1961,7 +1955,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1972,7 +1966,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1982,7 +1976,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -1995,7 +1989,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2005,7 +1999,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2016,7 +2010,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2026,7 +2020,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2037,7 +2031,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2047,7 +2041,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2058,7 +2052,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2068,7 +2062,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2080,7 +2074,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2091,7 +2085,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2101,7 +2095,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2112,7 +2106,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2122,7 +2116,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2134,7 +2128,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2144,7 +2138,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2155,7 +2149,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2166,7 +2160,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2177,7 +2171,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2188,7 +2182,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2199,7 +2193,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2212,7 +2206,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2222,7 +2216,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2233,7 +2227,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2243,7 +2237,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2254,7 +2248,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2264,7 +2258,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2280,7 +2274,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2290,7 +2284,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2301,7 +2295,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2311,7 +2305,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2322,7 +2316,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2332,7 +2326,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2344,7 +2338,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2354,7 +2348,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2365,7 +2359,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2375,7 +2369,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2386,7 +2380,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2396,7 +2390,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2408,7 +2402,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2418,7 +2412,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2429,7 +2423,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2439,7 +2433,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2450,7 +2444,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2460,7 +2454,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2472,7 +2466,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2482,7 +2476,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2493,7 +2487,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2503,7 +2497,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2514,7 +2508,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2524,7 +2518,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2536,7 +2530,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2546,7 +2540,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2557,7 +2551,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2567,7 +2561,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2578,7 +2572,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2588,7 +2582,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2600,7 +2594,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2610,7 +2604,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2621,7 +2615,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2631,7 +2625,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2642,7 +2636,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2652,7 +2646,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2664,7 +2658,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2674,7 +2668,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2685,7 +2679,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2695,7 +2689,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2706,7 +2700,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2716,7 +2710,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2728,7 +2722,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2738,7 +2732,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2749,7 +2743,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2759,7 +2753,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2770,7 +2764,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2780,7 +2774,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2792,7 +2786,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2802,7 +2796,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2813,7 +2807,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2823,7 +2817,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2834,7 +2828,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2844,7 +2838,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2859,7 +2853,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2870,7 +2864,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2883,7 +2877,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2904,7 +2898,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2914,7 +2908,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2925,7 +2919,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2935,7 +2929,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2946,7 +2940,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2956,7 +2950,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2968,7 +2962,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2978,7 +2972,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2989,7 +2983,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -2999,7 +2993,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3011,7 +3005,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3021,7 +3015,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3032,7 +3026,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3042,7 +3036,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3053,7 +3047,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3063,7 +3057,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3075,7 +3069,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3085,7 +3079,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3096,7 +3090,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3106,7 +3100,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3117,7 +3111,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3127,7 +3121,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3139,7 +3133,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3149,7 +3143,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3160,7 +3154,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3170,7 +3164,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3181,7 +3175,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3191,7 +3185,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3203,7 +3197,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3219,7 +3213,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3231,7 +3225,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3247,7 +3241,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3261,7 +3255,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3272,7 +3266,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3285,7 +3279,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3298,7 +3292,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3308,7 +3302,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3319,7 +3313,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3329,7 +3323,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3340,7 +3334,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3350,7 +3344,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3362,7 +3356,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3372,7 +3366,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3383,7 +3377,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3393,7 +3387,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3404,7 +3398,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3414,7 +3408,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3427,7 +3421,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3437,7 +3431,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3448,7 +3442,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3458,7 +3452,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3469,7 +3463,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3479,7 +3473,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3491,7 +3485,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3501,7 +3495,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3512,7 +3506,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3522,7 +3516,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3533,7 +3527,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3543,7 +3537,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3555,7 +3549,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3565,7 +3559,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3577,7 +3571,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3590,7 +3584,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3602,7 +3596,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3622,7 +3616,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3632,7 +3626,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3643,7 +3637,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3653,7 +3647,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3664,7 +3658,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3674,7 +3668,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3686,7 +3680,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3696,7 +3690,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3707,7 +3701,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3717,7 +3711,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3728,7 +3722,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3738,7 +3732,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3754,7 +3748,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3764,7 +3758,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3775,7 +3769,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3785,7 +3779,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3796,7 +3790,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3806,7 +3800,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3817,7 +3811,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3827,7 +3821,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3851,7 +3845,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3861,7 +3855,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3872,7 +3866,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF92D050"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3882,7 +3876,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3893,7 +3887,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3903,7 +3897,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3914,7 +3908,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3924,7 +3918,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3936,7 +3930,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF00FF"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3946,7 +3940,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3957,7 +3951,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3967,7 +3961,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3980,7 +3974,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -3990,7 +3984,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4001,7 +3995,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4011,7 +4005,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4023,7 +4017,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4033,7 +4027,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4044,7 +4038,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4054,7 +4048,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4066,7 +4060,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4076,7 +4070,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4087,7 +4081,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4097,7 +4091,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4109,7 +4103,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4119,7 +4113,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4131,7 +4125,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4141,7 +4135,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4152,7 +4146,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4162,7 +4156,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4173,7 +4167,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4183,7 +4177,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4195,7 +4189,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4205,7 +4199,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4216,7 +4210,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4226,7 +4220,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4237,7 +4231,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4247,7 +4241,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4259,7 +4253,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4269,7 +4263,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4280,7 +4274,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4290,7 +4284,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4301,7 +4295,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4311,7 +4305,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4322,7 +4316,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4332,7 +4326,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4344,7 +4338,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4354,7 +4348,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4364,7 +4358,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4375,7 +4369,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4385,7 +4379,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4396,7 +4390,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4406,7 +4400,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4417,7 +4411,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4427,7 +4421,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4438,7 +4432,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4448,7 +4442,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4460,7 +4454,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4470,7 +4464,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4481,7 +4475,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4491,7 +4485,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4502,7 +4496,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4512,7 +4506,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4523,7 +4517,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4536,7 +4530,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4546,7 +4540,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4557,7 +4551,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4567,7 +4561,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4579,7 +4573,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4589,7 +4583,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4600,7 +4594,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4610,7 +4604,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4621,7 +4615,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4631,7 +4625,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4643,7 +4637,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4653,7 +4647,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4664,7 +4658,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4674,7 +4668,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4685,7 +4679,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4695,7 +4689,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4707,7 +4701,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4717,7 +4711,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4728,7 +4722,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4738,7 +4732,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4749,7 +4743,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4759,7 +4753,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4770,7 +4764,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4781,7 +4775,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4791,7 +4785,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4802,7 +4796,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4812,7 +4806,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4823,7 +4817,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4833,7 +4827,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4844,7 +4838,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4855,7 +4849,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4865,7 +4859,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4876,7 +4870,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4886,7 +4880,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4897,7 +4891,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4907,7 +4901,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4923,7 +4917,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4933,7 +4927,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4944,7 +4938,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4954,7 +4948,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4965,7 +4959,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4975,7 +4969,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4986,7 +4980,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -4996,7 +4990,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5008,7 +5002,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5018,7 +5012,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5029,7 +5023,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5039,7 +5033,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5050,7 +5044,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5060,7 +5054,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5071,7 +5065,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5081,7 +5075,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5093,7 +5087,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5103,7 +5097,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5114,7 +5108,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5124,7 +5118,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5135,7 +5129,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5145,7 +5139,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5157,7 +5151,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5167,7 +5161,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5178,7 +5172,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5188,7 +5182,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5199,7 +5193,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5209,7 +5203,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5221,7 +5215,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5231,7 +5225,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5242,7 +5236,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FF00B050"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5252,7 +5246,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5263,7 +5257,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5273,7 +5267,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5284,7 +5278,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5294,7 +5288,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5305,7 +5299,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5315,7 +5309,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5326,7 +5320,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5336,7 +5330,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5347,7 +5341,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5357,7 +5351,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5375,7 +5369,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5386,7 +5380,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5398,7 +5392,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5409,7 +5403,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5422,7 +5416,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5433,7 +5427,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5445,7 +5439,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5463,7 +5457,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFFF00FF"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5477,7 +5471,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5489,7 +5483,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5501,7 +5495,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFFFFF00"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5519,7 +5513,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFFF00FF"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5530,7 +5524,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5542,7 +5536,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFFF00FF"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5561,7 +5555,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5571,7 +5565,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5582,7 +5576,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF00FF"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5592,7 +5586,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5604,7 +5598,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF00FF"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5614,7 +5608,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5625,7 +5619,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5635,7 +5629,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5651,7 +5645,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5661,7 +5655,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5672,7 +5666,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5682,7 +5676,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5694,7 +5688,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5704,7 +5698,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5715,7 +5709,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5725,7 +5719,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5737,7 +5731,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5747,7 +5741,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5759,7 +5753,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF00FF"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5769,7 +5763,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5781,7 +5775,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5791,7 +5785,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5803,7 +5797,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFFF00FF"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5813,7 +5807,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5826,7 +5820,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5836,7 +5830,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5847,7 +5841,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5857,7 +5851,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5869,7 +5863,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5879,7 +5873,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5891,7 +5885,7 @@
         <b/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5901,7 +5895,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5914,7 +5908,7 @@
         <b/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5924,7 +5918,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5945,7 +5939,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5956,7 +5950,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5967,7 +5961,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5979,7 +5973,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -5990,7 +5984,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6002,7 +5996,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6013,7 +6007,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6025,7 +6019,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6036,7 +6030,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6049,7 +6043,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6060,7 +6054,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6072,7 +6066,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6084,7 +6078,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6095,7 +6089,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6107,7 +6101,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6118,7 +6112,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6130,7 +6124,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6141,7 +6135,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6153,7 +6147,7 @@
         <i/>
         <sz val="11"/>
         <color rgb="FFC00000"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6164,7 +6158,7 @@
         <i/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="Calibri"/>
+        <rFont val="等线"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -6186,17 +6180,98 @@
   </si>
   <si>
     <t>authenticator -&gt; secured IPDU</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CSMJobHandle:Crypto_Job
+{
+    struct AES_ctx* CTX_Handle;
+    Crypto_JobType* Crypto_Job;
+} CsmJobHandle_Type;
+UserCode_CryptoJob_Register: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CsmJobHandle_Type* jobHandle
+*CsmJobHandle = (uint8*)jobHandle
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Crypto_JobType* Crypto_Job</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    {
+        /*const*/ uint32 jobId;
+        Crypto_JobStateType state;
+        Crypto_JobPrimitiveInputOutputType* PrimitiveInputOutput;
+        /*const*/ Crypto_JobPrimitiveInfoType* jobPrimitiveInfo;
+        /*const*/ Crypto_JobInfoType* jobInfo;
+        uint32 cryptoKeyId;
+    } Crypto_JobType;</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSM</t>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6216,7 +6291,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6224,7 +6299,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6232,7 +6307,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6241,7 +6316,7 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6249,7 +6324,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6257,7 +6332,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6265,7 +6340,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF92D050"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6274,20 +6349,20 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF92D050"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6302,7 +6377,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF00FF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6310,14 +6385,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6325,7 +6400,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6333,7 +6408,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6342,7 +6417,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFC00000"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6351,7 +6426,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFF00FF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -6360,8 +6435,35 @@
       <i/>
       <sz val="11"/>
       <color rgb="FFFFFF00"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -6723,7 +6825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -6785,24 +6887,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -6848,12 +6932,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -6862,12 +6940,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -6878,17 +6950,50 @@
     <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7267,17 +7372,17 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="23.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.6328125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.54296875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="32.81640625" style="4" customWidth="1"/>
-    <col min="5" max="6" width="10.6328125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="53.6328125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="23.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="32.875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="10.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="53.625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="18.75" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -7300,7 +7405,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="82" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="81.95" customHeight="1">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -7317,8 +7422,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:7" ht="30.95" customHeight="1">
+      <c r="A3" s="48" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -7330,41 +7435,41 @@
       <c r="D3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="23"/>
+      <c r="F3" s="44"/>
       <c r="G3" s="13"/>
     </row>
-    <row r="4" spans="1:7" ht="52" x14ac:dyDescent="0.35">
-      <c r="A4" s="24"/>
-      <c r="B4" s="23" t="s">
+    <row r="4" spans="1:7" ht="42.75">
+      <c r="A4" s="48"/>
+      <c r="B4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="46"/>
       <c r="D4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
       <c r="G4" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="39" x14ac:dyDescent="0.35">
-      <c r="A5" s="24"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="22"/>
+    <row r="5" spans="1:7" ht="42.75">
+      <c r="A5" s="48"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
       <c r="G5" s="14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="117" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="114">
       <c r="A6" s="15" t="s">
         <v>20</v>
       </c>
@@ -7385,7 +7490,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="65" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="57">
       <c r="A7" s="16" t="s">
         <v>34</v>
       </c>
@@ -7404,63 +7509,63 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="25" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="26"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="26" x14ac:dyDescent="0.35">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
+    <row r="9" spans="1:7" ht="28.5">
+      <c r="A9" s="49"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
       <c r="D9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
+    <row r="10" spans="1:7">
+      <c r="A10" s="49"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="26" x14ac:dyDescent="0.35">
-      <c r="A11" s="25"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
+    <row r="11" spans="1:7">
+      <c r="A11" s="49"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
       <c r="D11" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="30.6" customHeight="1" thickBot="1">
       <c r="A12" s="18" t="s">
         <v>38</v>
       </c>
@@ -7479,17 +7584,18 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C8:C11"/>
     <mergeCell ref="F3:F5"/>
     <mergeCell ref="E8:E11"/>
     <mergeCell ref="F8:F11"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="E3:E5"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C8:C11"/>
   </mergeCells>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7500,296 +7606,299 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B28" sqref="A1:C28"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="133.453125" style="27" customWidth="1"/>
-    <col min="2" max="2" width="147.54296875" style="28" customWidth="1"/>
-    <col min="3" max="3" width="51.36328125" style="55" customWidth="1"/>
+    <col min="1" max="1" width="133.5" style="21" customWidth="1"/>
+    <col min="2" max="2" width="147.5" style="22" customWidth="1"/>
+    <col min="3" max="3" width="51.375" style="43" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="39"/>
+    </row>
+    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A2" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="150" customHeight="1">
+      <c r="A3" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="90" customHeight="1">
+      <c r="A4" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="56"/>
+    </row>
+    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="56"/>
+    </row>
+    <row r="7" spans="1:3" ht="300" customHeight="1">
+      <c r="A7" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="90" customHeight="1">
+      <c r="A9" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="51"/>
+    </row>
+    <row r="10" spans="1:3" ht="90" customHeight="1">
+      <c r="A10" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="50.1" customHeight="1">
+      <c r="A11" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="50"/>
+    </row>
+    <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="39"/>
+    </row>
+    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+    </row>
+    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="40"/>
+    </row>
+    <row r="15" spans="1:3" ht="140.1" customHeight="1">
+      <c r="A15" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="90" customHeight="1">
+      <c r="A16" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="30" customHeight="1">
+      <c r="A17" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="55"/>
+    </row>
+    <row r="18" spans="1:3" ht="83.1" customHeight="1">
+      <c r="A18" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="51"/>
+    </row>
+    <row r="19" spans="1:3" ht="33.6" customHeight="1">
+      <c r="A19" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="40"/>
+    </row>
+    <row r="20" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="49"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
     </row>
-    <row r="2" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>63</v>
+    <row r="21" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="150" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>60</v>
+    <row r="22" spans="1:3" ht="80.099999999999994" customHeight="1">
+      <c r="A22" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" s="51" t="s">
-        <v>62</v>
+    <row r="23" spans="1:3" ht="159.94999999999999" customHeight="1">
+      <c r="A23" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="31" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="52" t="s">
-        <v>51</v>
-      </c>
+    <row r="24" spans="1:3" ht="90" customHeight="1">
+      <c r="A24" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="51"/>
     </row>
-    <row r="6" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="52"/>
+    <row r="25" spans="1:3" ht="30" customHeight="1">
+      <c r="A25" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="7" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="52"/>
+    <row r="26" spans="1:3" ht="110.1" customHeight="1">
+      <c r="A26" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="51"/>
     </row>
-    <row r="8" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="52"/>
+    <row r="27" spans="1:3" ht="80.099999999999994" customHeight="1">
+      <c r="A27" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>102</v>
+      </c>
     </row>
-    <row r="9" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="52"/>
-    </row>
-    <row r="10" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="47"/>
-    </row>
-    <row r="12" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="49"/>
-    </row>
-    <row r="13" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-    </row>
-    <row r="14" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="45" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="50"/>
-    </row>
-    <row r="15" spans="1:3" ht="140" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="53"/>
-    </row>
-    <row r="18" spans="1:3" ht="83" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="33" t="s">
+    <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="A28" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="48"/>
-    </row>
-    <row r="19" spans="1:3" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="50"/>
-    </row>
-    <row r="20" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-    </row>
-    <row r="21" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C21" s="50" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="80" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="C22" s="50" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="160" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" s="47" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="90" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="48"/>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B25" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="110" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C26" s="48"/>
-    </row>
-    <row r="27" spans="1:3" ht="80" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="44"/>
-      <c r="C28" s="54"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C5:C9"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="A13:C13"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="C16:C18"/>
     <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
+  <phoneticPr fontId="22" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/BusManagerSecOcDemo.xlsx
+++ b/BusManagerSecOcDemo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_XuhuaRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB61EA1-1997-4512-B2C6-277649D0F516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A8337C-ABC0-4DB8-8D73-3D4A92B7E622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-8640" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
   </bookViews>
@@ -7605,8 +7605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38B81CE-79E3-4568-BB50-9E45BADB5D49}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7674,7 +7674,9 @@
       <c r="B6" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="56"/>
+      <c r="C6" s="50" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="300" customHeight="1">
       <c r="A7" s="25" t="s">
@@ -7683,9 +7685,7 @@
       <c r="B7" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="C7" s="40" t="s">
-        <v>105</v>
-      </c>
+      <c r="C7" s="51"/>
     </row>
     <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="25" t="s">
@@ -7889,7 +7889,8 @@
       <c r="C28" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="C6:C7"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C10:C11"/>
     <mergeCell ref="A13:C13"/>

--- a/BusManagerSecOcDemo.xlsx
+++ b/BusManagerSecOcDemo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_XuhuaRepo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A8337C-ABC0-4DB8-8D73-3D4A92B7E622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DB0D84-8401-4A6A-8176-3E71485F3010}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-8640" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{EE3554E5-5B85-4F6F-95D2-24E55C4E92D2}"/>
   </bookViews>
@@ -4910,456 +4910,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">char* </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pduSpecificKey</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> = </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DsCmacKey_getPduSpecificKey</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>securedIPduName</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>authenticPduName</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UserCode_SecOCHelper_DeriveKeyFromString</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pduSpecificKey</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, &amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>keyPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, &amp;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>keyLength</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DsBusCustomCodeSecOCPduFeature_setKeyPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PduFeatureHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>keyPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DsBusCustomCodeSecOCPduFeature_setKeyLength</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PduFeatureHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>keyLength</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UserCode_Csm_KeyElementSet</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF00B050"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>featureInstanceData</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CsmJobHandle</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>keyId</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CRYPTO_KE_MAC_KEY</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>keyPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>keyLength</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">caluclating authenticator(Non-truncated)
 </t>
     </r>
@@ -5462,44 +5012,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>freshnessValue</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>keyPtr</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color rgb="FFFFFF00"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>keyLength</t>
     </r>
   </si>
   <si>
@@ -6260,6 +5772,585 @@
   </si>
   <si>
     <t>CSM</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">char* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pduSpecificKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DsCmacKey_getPduSpecificKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>securedIPduName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>authenticPduName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UserCode_SecOCHelper_DeriveKeyFromString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pduSpecificKey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>keyPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, &amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>keyLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DsBusCustomCodeSecOCPduFeature_setKeyPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PduFeatureHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>keyPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DsBusCustomCodeSecOCPduFeature_setKeyLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PduFeatureHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>keyLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>UserCode_Csm_KeyElementSet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>featureInstanceData</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CsmJobHandle</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>keyId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CRYPTO_KE_MAC_KEY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>keyPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>keyLength</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>keyPtr</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>keyLength</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+UserCode_Csm_KeyElementSet:
+struct AES_ctx* handle </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> DsCmac_newAesCtx() 
+jobHandle-&gt;CTX_Handle </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> handle
+jobHandle-&gt;Crypto_Job-&gt;jobPrimitiveInfo-&gt;cryIfKeyId </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> keyId
+DsCmac_CMACInit(keyPtr, handle)</t>
+    </r>
     <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
@@ -7605,8 +7696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38B81CE-79E3-4568-BB50-9E45BADB5D49}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7675,7 +7766,7 @@
         <v>48</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="300" customHeight="1">
@@ -7683,7 +7774,7 @@
         <v>50</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C7" s="51"/>
     </row>
@@ -7695,15 +7786,15 @@
         <v>49</v>
       </c>
       <c r="C8" s="50" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="110.1" customHeight="1">
+      <c r="A9" s="27" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="90" customHeight="1">
-      <c r="A9" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>90</v>
+      <c r="B9" s="29" t="s">
+        <v>105</v>
       </c>
       <c r="C9" s="51"/>
     </row>
@@ -7771,7 +7862,7 @@
         <v>74</v>
       </c>
       <c r="C16" s="50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" customHeight="1">
@@ -7816,7 +7907,7 @@
         <v>82</v>
       </c>
       <c r="C21" s="40" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="80.099999999999994" customHeight="1">
@@ -7824,7 +7915,7 @@
         <v>84</v>
       </c>
       <c r="B22" s="28" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C22" s="40" t="s">
         <v>83</v>
@@ -7835,10 +7926,10 @@
         <v>85</v>
       </c>
       <c r="B23" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="50" t="s">
         <v>97</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="90" customHeight="1">
@@ -7846,39 +7937,39 @@
         <v>86</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C24" s="51"/>
     </row>
     <row r="25" spans="1:3" ht="30" customHeight="1">
       <c r="A25" s="27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B25" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C25" s="50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="110.1" customHeight="1">
       <c r="A26" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C26" s="51"/>
     </row>
     <row r="27" spans="1:3" ht="80.099999999999994" customHeight="1">
       <c r="A27" s="27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C27" s="40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20.100000000000001" customHeight="1">
